--- a/build/Desktop_Qt_6_7_2_MinGW_64_bit-Debug/a.xlsx
+++ b/build/Desktop_Qt_6_7_2_MinGW_64_bit-Debug/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\application\QT\park2\build\Desktop_Qt_6_7_2_MinGW_64_bit-Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3020780C-61A6-48D8-9BF1-97724122F9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5F17C3-4E69-4423-895C-027F8892EDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,24 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
-  <si>
-    <t>琼BMCHGF</t>
-  </si>
-  <si>
-    <t>台LFK21W</t>
-  </si>
-  <si>
-    <t>澳CO67TZ</t>
-  </si>
-  <si>
-    <t>蒙WB01JBM</t>
-  </si>
-  <si>
-    <t>闽MPMVJ6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>黑UC8VQZ9</t>
+  </si>
+  <si>
+    <t>湘KZVAZC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川0DQFW3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港YHBABK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闽ZXC6AE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁WULRQD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙ZAYBSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>津VZXM0Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘1IYBW9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>津3XGZ5P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云97VH14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -375,67 +400,67 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/build/Desktop_Qt_6_7_2_MinGW_64_bit-Debug/a.xlsx
+++ b/build/Desktop_Qt_6_7_2_MinGW_64_bit-Debug/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\application\QT\park2\build\Desktop_Qt_6_7_2_MinGW_64_bit-Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5F17C3-4E69-4423-895C-027F8892EDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306CFF9A-C0B2-476C-BEC4-00D943FBF20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,56 +25,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>黑UC8VQZ9</t>
-  </si>
-  <si>
-    <t>湘KZVAZC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>停车场状态</t>
+  </si>
+  <si>
+    <t>停车历史记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>川0DQFW3</t>
+    <t>停车场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>港YHBABK</t>
+    <t>等候区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闽ZXC6AE</t>
+    <t>车牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宁WULRQD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙ZAYBSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>津VZXM0Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘1IYBW9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>津3XGZ5P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云97VH14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>停车时间</t>
+  </si>
+  <si>
+    <t>出车时间</t>
+  </si>
+  <si>
+    <t>花费</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +74,68 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD8E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CFC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8A2BE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,8 +150,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,78 +462,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A14"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
